--- a/Results/Sentiwordnet/hasil_SERVICE.xlsx
+++ b/Results/Sentiwordnet/hasil_SERVICE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="309">
   <si>
     <t>id</t>
   </si>
@@ -166,9 +166,6 @@
     <t>1349391:1</t>
   </si>
   <si>
-    <t>1357554:3</t>
-  </si>
-  <si>
     <t>1367358:3</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
     <t>1671113:2</t>
   </si>
   <si>
-    <t>1671113:4</t>
-  </si>
-  <si>
     <t>1700205:2</t>
   </si>
   <si>
@@ -529,9 +523,6 @@
     <t>sometimes i get bad food and bad service, sometimes i get good good and bad service.</t>
   </si>
   <si>
-    <t>service was slow, but the people were friendly.</t>
-  </si>
-  <si>
     <t>ambience is delightful, service impeccable.</t>
   </si>
   <si>
@@ -658,9 +649,6 @@
     <t>i have tried to make reservations, but both times, the hostess didn't have my name.</t>
   </si>
   <si>
-    <t>the staff has been nice, but they seemed really stressed and the unisex bathroom needs to be cleaned more often.</t>
-  </si>
-  <si>
     <t>considering we were the last patrons there and it was after the closing time, the waitstaff did not rush us at all and made us feel comfortable and relaxed.</t>
   </si>
   <si>
@@ -766,7 +754,7 @@
     <t>sensual</t>
   </si>
   <si>
-    <t>perfection</t>
+    <t>excellent</t>
   </si>
   <si>
     <t>haze</t>
@@ -793,9 +781,6 @@
     <t>japanese</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>rude</t>
   </si>
   <si>
@@ -862,33 +847,24 @@
     <t>enjoying</t>
   </si>
   <si>
+    <t>impeccable</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>proper</t>
+  </si>
+  <si>
+    <t>friendliest</t>
+  </si>
+  <si>
     <t>slow</t>
   </si>
   <si>
-    <t>delightful</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>excellentthe</t>
-  </si>
-  <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>proper</t>
-  </si>
-  <si>
-    <t>impeccable</t>
-  </si>
-  <si>
-    <t>breathtaking</t>
-  </si>
-  <si>
-    <t>friendliest</t>
-  </si>
-  <si>
     <t>quick</t>
   </si>
   <si>
@@ -899,9 +875,6 @@
   </si>
   <si>
     <t>get</t>
-  </si>
-  <si>
-    <t>worth</t>
   </si>
   <si>
     <t>dissappointed</t>
@@ -1325,7 +1298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1356,16 +1329,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1376,16 +1349,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1396,16 +1369,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F4" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1416,16 +1389,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F5" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1436,16 +1409,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1456,16 +1429,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1476,16 +1449,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E8" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F8" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1496,16 +1469,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1516,16 +1489,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E10" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F10" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1536,16 +1509,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E11" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F11" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1556,16 +1529,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E12" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F12" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1576,16 +1549,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E13" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F13" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1596,16 +1569,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E14" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F14" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1616,16 +1589,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E15" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F15" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1636,16 +1609,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="E16" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F16" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1656,16 +1629,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E17" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F17" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1676,16 +1649,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E18" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F18" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1696,16 +1669,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F19" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1716,16 +1689,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E20" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F20" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1736,16 +1709,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E21" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F21" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1756,16 +1729,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E22" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F22" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1776,16 +1749,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E23" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F23" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1796,16 +1769,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E24" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F24" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1816,16 +1789,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E25" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F25" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1836,16 +1809,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E26" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F26" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1856,16 +1829,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E27" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F27" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1876,16 +1849,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E28" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F28" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1896,16 +1869,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E29" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F29" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1916,16 +1889,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E30" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F30" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1936,16 +1909,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D31" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E31" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F31" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1956,16 +1929,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E32" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F32" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1976,16 +1949,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E33" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F33" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1996,16 +1969,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E34" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F34" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2016,16 +1989,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D35" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E35" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F35" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2036,16 +2009,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E36" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F36" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2056,16 +2029,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D37" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E37" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F37" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2076,16 +2049,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E38" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F38" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2096,16 +2069,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E39" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F39" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2116,16 +2089,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E40" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F40" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2136,16 +2109,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E41" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F41" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2156,16 +2129,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D42" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E42" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F42" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2176,16 +2149,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D43" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E43" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F43" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2196,16 +2169,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E44" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F44" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2216,16 +2189,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E45" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F45" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2236,16 +2209,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D46" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E46" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F46" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2256,16 +2229,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E47" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F47" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2276,16 +2249,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D48" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E48" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F48" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2296,16 +2269,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="E49" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F49" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2316,16 +2289,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D50" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="E50" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F50" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2336,16 +2309,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E51" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F51" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2356,16 +2329,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D52" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E52" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F52" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2376,16 +2349,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D53" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="E53" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F53" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2396,16 +2369,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D54" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E54" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F54" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2416,16 +2389,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E55" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F55" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2436,16 +2409,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D56" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E56" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F56" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2456,16 +2429,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D57" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="E57" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F57" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2476,16 +2449,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D58" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E58" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F58" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2496,16 +2469,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D59" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="E59" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F59" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2516,16 +2489,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D60" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F60" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2536,16 +2509,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E61" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F61" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2556,16 +2529,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E62" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F62" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2576,16 +2549,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="E63" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F63" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2596,16 +2569,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="E64" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F64" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2616,16 +2589,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E65" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F65" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2636,16 +2609,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="E66" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F66" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2656,16 +2629,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D67" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E67" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F67" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2676,16 +2649,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="E68" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F68" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2696,16 +2669,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D69" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="E69" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F69" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2716,16 +2689,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D70" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="E70" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F70" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2736,16 +2709,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D71" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="E71" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F71" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2756,16 +2729,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="E72" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F72" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2776,16 +2749,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D73" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E73" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F73" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2796,16 +2769,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D74" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="E74" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F74" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2816,16 +2789,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D75" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E75" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F75" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2836,16 +2809,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D76" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="E76" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F76" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2856,16 +2829,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D77" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E77" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F77" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2876,16 +2849,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D78" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="E78" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F78" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2896,16 +2869,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D79" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="E79" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F79" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2916,16 +2889,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D80" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E80" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F80" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2936,16 +2909,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D81" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="E81" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F81" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2956,16 +2929,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D82" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="E82" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F82" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2976,16 +2949,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D83" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="E83" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F83" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2996,16 +2969,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D84" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="E84" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F84" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3016,16 +2989,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D85" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="E85" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F85" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3036,16 +3009,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D86" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="E86" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F86" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3056,16 +3029,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D87" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E87" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F87" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3076,16 +3049,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D88" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E88" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F88" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3096,16 +3069,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D89" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E89" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F89" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3116,16 +3089,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D90" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E90" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F90" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3136,16 +3109,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D91" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="E91" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F91" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3156,16 +3129,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D92" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="E92" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F92" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3176,16 +3149,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D93" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="E93" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F93" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3196,16 +3169,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D94" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="E94" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F94" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3216,16 +3189,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D95" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="E95" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F95" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3236,16 +3209,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D96" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="E96" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F96" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3256,16 +3229,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D97" t="s">
         <v>297</v>
       </c>
       <c r="E97" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F97" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3276,16 +3249,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D98" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="E98" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F98" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3296,16 +3269,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D99" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E99" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F99" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3316,16 +3289,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D100" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="E100" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F100" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3336,16 +3309,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D101" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="E101" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F101" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3356,16 +3329,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D102" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="E102" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F102" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3376,16 +3349,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D103" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="E103" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F103" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3396,16 +3369,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D104" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E104" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F104" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3416,16 +3389,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D105" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E105" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F105" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3436,16 +3409,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D106" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="E106" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F106" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3456,16 +3429,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D107" t="s">
-        <v>311</v>
+        <v>246</v>
       </c>
       <c r="E107" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F107" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3476,16 +3449,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D108" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E108" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F108" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3496,16 +3469,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D109" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="E109" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F109" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3516,16 +3489,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D110" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="E110" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F110" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3536,16 +3509,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D111" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="E111" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F111" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3556,16 +3529,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D112" t="s">
-        <v>313</v>
+        <v>249</v>
       </c>
       <c r="E112" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F112" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3576,16 +3549,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D113" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="E113" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F113" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3596,16 +3569,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D114" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E114" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F114" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3616,16 +3589,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D115" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="E115" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F115" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3636,16 +3609,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D116" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E116" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F116" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3656,16 +3629,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D117" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E117" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F117" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3676,16 +3649,16 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D118" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E118" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F118" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3696,16 +3669,16 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D119" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="E119" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F119" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3716,56 +3689,16 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D120" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="E120" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F120" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>124</v>
-      </c>
-      <c r="C121" t="s">
-        <v>245</v>
-      </c>
-      <c r="D121" t="s">
-        <v>274</v>
-      </c>
-      <c r="E121" t="s">
-        <v>317</v>
-      </c>
-      <c r="F121" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>125</v>
-      </c>
-      <c r="C122" t="s">
-        <v>246</v>
-      </c>
-      <c r="D122" t="s">
-        <v>311</v>
-      </c>
-      <c r="E122" t="s">
-        <v>316</v>
-      </c>
-      <c r="F122" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sentiwordnet/hasil_SERVICE.xlsx
+++ b/Results/Sentiwordnet/hasil_SERVICE.xlsx
@@ -1378,7 +1378,7 @@
         <v>308</v>
       </c>
       <c r="F4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2338,7 +2338,7 @@
         <v>307</v>
       </c>
       <c r="F52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2378,7 +2378,7 @@
         <v>308</v>
       </c>
       <c r="F54" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3178,7 +3178,7 @@
         <v>307</v>
       </c>
       <c r="F94" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3638,7 +3638,7 @@
         <v>307</v>
       </c>
       <c r="F117" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="1:6">

--- a/Results/Sentiwordnet/hasil_SERVICE.xlsx
+++ b/Results/Sentiwordnet/hasil_SERVICE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="315">
   <si>
     <t>id</t>
   </si>
@@ -55,12 +55,18 @@
     <t>1058221:3</t>
   </si>
   <si>
+    <t>1058221:4</t>
+  </si>
+  <si>
     <t>1062641:3</t>
   </si>
   <si>
     <t>1074868:4</t>
   </si>
   <si>
+    <t>1086478:0</t>
+  </si>
+  <si>
     <t>1086478:2</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>1138996:5</t>
   </si>
   <si>
+    <t>1147211:2</t>
+  </si>
+  <si>
     <t>1147211:3</t>
   </si>
   <si>
@@ -115,9 +124,6 @@
     <t>1227999:1</t>
   </si>
   <si>
-    <t>1230993:2</t>
-  </si>
-  <si>
     <t>1232468:3</t>
   </si>
   <si>
@@ -160,9 +166,6 @@
     <t>1347423:1</t>
   </si>
   <si>
-    <t>1347423:2</t>
-  </si>
-  <si>
     <t>1349391:1</t>
   </si>
   <si>
@@ -268,16 +271,16 @@
     <t>1632929:5</t>
   </si>
   <si>
+    <t>1649025:2</t>
+  </si>
+  <si>
     <t>1655521:3</t>
   </si>
   <si>
     <t>1660047:1</t>
   </si>
   <si>
-    <t>1660047:3</t>
-  </si>
-  <si>
-    <t>1660047:4</t>
+    <t>1660047:2</t>
   </si>
   <si>
     <t>1660047:5</t>
@@ -289,9 +292,6 @@
     <t>1662726:1</t>
   </si>
   <si>
-    <t>1671113:2</t>
-  </si>
-  <si>
     <t>1700205:2</t>
   </si>
   <si>
@@ -307,6 +307,9 @@
     <t>1727363:2</t>
   </si>
   <si>
+    <t>1728733:1</t>
+  </si>
+  <si>
     <t>1748839:1</t>
   </si>
   <si>
@@ -340,6 +343,9 @@
     <t>493514:0</t>
   </si>
   <si>
+    <t>498657:4</t>
+  </si>
+  <si>
     <t>507844:0</t>
   </si>
   <si>
@@ -412,12 +418,18 @@
     <t>however, it's the service that leaves a bad taste in my mouth.</t>
   </si>
   <si>
+    <t>i happen to have a policy that goes along with a little bit of self-respect, which includes not letting a waiter intimidate me, i.e. make me feel bad asking for trivialities like water, or the check.</t>
+  </si>
+  <si>
     <t>service is top notch.</t>
   </si>
   <si>
     <t>the food was well prepared and the service impecable.</t>
   </si>
   <si>
+    <t>the food here is rather good, but only if you like to wait for it.</t>
+  </si>
+  <si>
     <t>the service varys from day to day- sometimes they're very nice, and sometimes not.</t>
   </si>
   <si>
@@ -448,6 +460,9 @@
     <t>the people that work there are always so friendly you forget you are in new york sometimes.</t>
   </si>
   <si>
+    <t>the waitress was very patient with us and the food is phenomenal!</t>
+  </si>
+  <si>
     <t>service was prompt, friendly and great.</t>
   </si>
   <si>
@@ -472,9 +487,6 @@
     <t>the waitress moved our table practically into the bathroom and when we asked to cancel our dinner orders because we did not want to eat sitting on the toilet, we were told no...</t>
   </si>
   <si>
-    <t>our server was very helpful and friendly.</t>
-  </si>
-  <si>
     <t>service was prompt and courteous.</t>
   </si>
   <si>
@@ -517,9 +529,6 @@
     <t>the staff was accomodating, the food was absolutely delicious and the place is lovely.</t>
   </si>
   <si>
-    <t>we even had a visit from the manager who wanted to make sure we were enjoying ourselves.</t>
-  </si>
-  <si>
     <t>sometimes i get bad food and bad service, sometimes i get good good and bad service.</t>
   </si>
   <si>
@@ -625,16 +634,16 @@
     <t>truly the mark of an attentive waiter.</t>
   </si>
   <si>
+    <t>the food is so cheap and the waiters are nice.</t>
+  </si>
+  <si>
     <t>the wait staff is very freindly, they make it feel like you're eating in a freindly little european town.</t>
   </si>
   <si>
     <t>the service was terrible, we had to wait for everything and ask several of different people for the same thing before we were allowed to be served.</t>
   </si>
   <si>
-    <t>after dinner the manager grabbed my boyfriend, asked him: where are you from...maybe you dont know how things work in america...and in the end stormed away almost teareyed yelling that tips are the only thing they survive on.</t>
-  </si>
-  <si>
-    <t>we did tip, i guess the model/waitress just wanted more and complained to the manager.</t>
+    <t>the waitress, seems to be more concerned of looking good than actually waitressing.</t>
   </si>
   <si>
     <t>the whole set up is truly unprofessional and i wish cafe noir would get some good staff, because despite the current one this is a great place.</t>
@@ -646,9 +655,6 @@
     <t>a gentleman, maybe the manager, came to our table, and without so much as a smile or greeting asked for our order.</t>
   </si>
   <si>
-    <t>i have tried to make reservations, but both times, the hostess didn't have my name.</t>
-  </si>
-  <si>
     <t>considering we were the last patrons there and it was after the closing time, the waitstaff did not rush us at all and made us feel comfortable and relaxed.</t>
   </si>
   <si>
@@ -664,6 +670,9 @@
     <t>an excellent service</t>
   </si>
   <si>
+    <t>we were greeted promptly by the waiter who was very nice and cordial.</t>
+  </si>
+  <si>
     <t>immediately after we paid, the waiter took the money and said, okay, you guys are outta here.</t>
   </si>
   <si>
@@ -697,6 +706,9 @@
     <t>i cannot imagine a friendlier staff working in a restaurant.</t>
   </si>
   <si>
+    <t>the wait here is long for dim sum, but if you don't like sharing tables or if the typical raucous dim sum atmosphere is not your gig, this is a sleek (for chinatown) alternative.</t>
+  </si>
+  <si>
     <t>this place would be so much better served by being run by a group that actually understands customer service.</t>
   </si>
   <si>
@@ -769,6 +781,9 @@
     <t>bad</t>
   </si>
   <si>
+    <t>intimidate</t>
+  </si>
+  <si>
     <t>top</t>
   </si>
   <si>
@@ -790,148 +805,151 @@
     <t>fast</t>
   </si>
   <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>prompt</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>incredibly</t>
+  </si>
+  <si>
+    <t>moved</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>nonsense</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>delicous</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>professional</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>noisy</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>impeccable</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>proper</t>
+  </si>
+  <si>
+    <t>friendliest</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>exceptional</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>dissappointed</t>
+  </si>
+  <si>
+    <t>attentive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>concerned</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>promptly</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>pleasant</t>
+  </si>
+  <si>
+    <t>friendlier</t>
+  </si>
+  <si>
+    <t>dim</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>drawbacks</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>prompt</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>incredibly</t>
-  </si>
-  <si>
-    <t>moved</t>
+    <t>disappointed</t>
   </si>
   <si>
     <t>helpful</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>warm</t>
-  </si>
-  <si>
-    <t>nonsense</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>delicous</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>professional</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>noisy</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>enjoying</t>
-  </si>
-  <si>
-    <t>impeccable</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>proper</t>
-  </si>
-  <si>
-    <t>friendliest</t>
-  </si>
-  <si>
-    <t>slow</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>exceptional</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>dissappointed</t>
-  </si>
-  <si>
-    <t>attentive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>terrible</t>
-  </si>
-  <si>
-    <t>complained</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>didnt</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>pleasant</t>
-  </si>
-  <si>
-    <t>friendlier</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>romantic</t>
-  </si>
-  <si>
-    <t>drawbacks</t>
-  </si>
-  <si>
-    <t>disappointed</t>
   </si>
   <si>
     <t>ok</t>
@@ -1298,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1329,16 +1347,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1349,16 +1367,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1369,16 +1387,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1389,16 +1407,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F5" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1409,16 +1427,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E6" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F6" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1429,16 +1447,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1449,16 +1467,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E8" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F8" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1469,16 +1487,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E9" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F9" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1489,16 +1507,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E10" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F10" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1509,16 +1527,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F11" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1529,16 +1547,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E12" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F12" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1549,16 +1567,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E13" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1569,16 +1587,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E14" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F14" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1589,16 +1607,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E15" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1609,16 +1627,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="E16" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F16" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1629,16 +1647,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E17" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F17" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1649,16 +1667,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E18" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F18" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1669,16 +1687,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F19" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1689,16 +1707,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E20" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F20" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1709,16 +1727,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E21" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F21" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1729,16 +1747,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E22" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F22" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1749,16 +1767,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E23" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F23" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1769,16 +1787,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E24" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F24" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1789,16 +1807,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D25" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F25" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1809,16 +1827,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F26" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1829,16 +1847,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E27" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F27" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1849,16 +1867,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E28" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F28" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1869,16 +1887,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E29" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F29" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1889,16 +1907,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D30" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F30" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1909,16 +1927,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E31" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F31" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1929,16 +1947,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="E32" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F32" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1949,16 +1967,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E33" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F33" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1969,16 +1987,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D34" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E34" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F34" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1989,16 +2007,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D35" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E35" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F35" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2009,16 +2027,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E36" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2029,16 +2047,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D37" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E37" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F37" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2049,16 +2067,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D38" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E38" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2069,16 +2087,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E39" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F39" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2089,16 +2107,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D40" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E40" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F40" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2109,16 +2127,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D41" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E41" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F41" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2129,16 +2147,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="E42" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F42" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2149,16 +2167,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E43" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F43" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2169,16 +2187,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="E44" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F44" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2189,16 +2207,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D45" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E45" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F45" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2209,16 +2227,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D46" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E46" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F46" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2229,16 +2247,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D47" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E47" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F47" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2249,16 +2267,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D48" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E48" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F48" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2269,16 +2287,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="E49" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F49" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2289,16 +2307,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D50" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E50" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F50" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2309,16 +2327,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D51" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="E51" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F51" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2329,16 +2347,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D52" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E52" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F52" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2349,16 +2367,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D53" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="E53" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F53" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2369,16 +2387,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D54" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E54" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F54" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2389,16 +2407,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D55" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E55" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F55" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2409,16 +2427,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D56" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E56" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F56" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2429,16 +2447,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D57" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="E57" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F57" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2449,16 +2467,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D58" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="E58" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F58" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2469,16 +2487,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D59" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="E59" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F59" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2489,16 +2507,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D60" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="E60" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F60" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2509,16 +2527,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E61" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F61" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2529,16 +2547,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E62" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F62" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2549,16 +2567,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="E63" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F63" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2569,16 +2587,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="E64" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F64" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2589,16 +2607,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E65" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F65" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2609,16 +2627,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="E66" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F66" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2629,16 +2647,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D67" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E67" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F67" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2649,16 +2667,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D68" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="E68" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F68" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2669,16 +2687,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D69" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="E69" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F69" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2689,16 +2707,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D70" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="E70" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F70" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2709,16 +2727,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D71" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="E71" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F71" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2729,16 +2747,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D72" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E72" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F72" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2749,16 +2767,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D73" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E73" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F73" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2769,16 +2787,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D74" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="E74" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F74" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2789,16 +2807,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D75" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E75" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F75" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2809,16 +2827,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="E76" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F76" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2829,16 +2847,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D77" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E77" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F77" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2849,16 +2867,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D78" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="E78" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F78" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2869,16 +2887,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D79" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E79" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F79" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2889,16 +2907,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D80" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E80" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F80" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2909,16 +2927,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D81" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="E81" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F81" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2929,16 +2947,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D82" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="E82" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F82" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2949,16 +2967,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D83" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E83" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F83" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2969,16 +2987,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D84" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E84" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F84" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2989,16 +3007,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D85" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="E85" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F85" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3009,16 +3027,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D86" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="E86" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F86" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3029,16 +3047,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D87" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E87" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F87" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3049,16 +3067,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D88" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E88" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F88" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3069,16 +3087,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D89" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E89" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F89" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3089,16 +3107,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D90" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E90" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F90" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3109,16 +3127,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D91" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E91" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F91" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3129,16 +3147,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D92" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E92" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F92" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3149,16 +3167,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D93" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E93" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F93" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3169,16 +3187,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D94" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E94" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F94" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3189,16 +3207,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D95" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="E95" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F95" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3209,16 +3227,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D96" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="E96" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F96" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3229,16 +3247,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D97" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="E97" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F97" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3249,16 +3267,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D98" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E98" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F98" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3269,16 +3287,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D99" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E99" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F99" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3289,16 +3307,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D100" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="E100" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F100" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3309,16 +3327,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D101" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E101" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F101" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3329,16 +3347,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D102" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="E102" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F102" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3349,16 +3367,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D103" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E103" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F103" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3369,16 +3387,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D104" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E104" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F104" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3389,16 +3407,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D105" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E105" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F105" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3409,16 +3427,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D106" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="E106" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F106" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3429,16 +3447,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D107" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="E107" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F107" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3449,16 +3467,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D108" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="E108" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F108" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3469,16 +3487,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D109" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="E109" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F109" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3489,16 +3507,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D110" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="E110" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F110" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3509,16 +3527,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D111" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E111" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F111" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3529,16 +3547,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D112" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="E112" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F112" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3549,16 +3567,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D113" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="E113" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F113" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3569,16 +3587,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D114" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E114" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F114" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3589,16 +3607,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D115" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="E115" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F115" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3609,16 +3627,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D116" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="E116" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F116" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3629,16 +3647,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D117" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E117" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F117" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3649,16 +3667,16 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D118" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="E118" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F118" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3669,16 +3687,16 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D119" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="E119" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F119" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3689,16 +3707,56 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D120" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="E120" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F120" t="s">
-        <v>308</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121" t="s">
+        <v>245</v>
+      </c>
+      <c r="D121" t="s">
+        <v>273</v>
+      </c>
+      <c r="E121" t="s">
+        <v>314</v>
+      </c>
+      <c r="F121" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" t="s">
+        <v>246</v>
+      </c>
+      <c r="D122" t="s">
+        <v>306</v>
+      </c>
+      <c r="E122" t="s">
+        <v>313</v>
+      </c>
+      <c r="F122" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sentiwordnet/hasil_SERVICE.xlsx
+++ b/Results/Sentiwordnet/hasil_SERVICE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="310">
   <si>
     <t>id</t>
   </si>
@@ -34,9 +34,6 @@
     <t>1004293:1</t>
   </si>
   <si>
-    <t>1016296:1</t>
-  </si>
-  <si>
     <t>1028246:1</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>1126886:2</t>
   </si>
   <si>
-    <t>1131595:2</t>
-  </si>
-  <si>
     <t>1138996:1</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>1199480:2</t>
   </si>
   <si>
-    <t>1212346:1</t>
-  </si>
-  <si>
     <t>1225162:3</t>
   </si>
   <si>
@@ -196,6 +187,9 @@
     <t>1413697:2</t>
   </si>
   <si>
+    <t>1417496:0</t>
+  </si>
+  <si>
     <t>1417496:3</t>
   </si>
   <si>
@@ -325,9 +319,6 @@
     <t>454704:1</t>
   </si>
   <si>
-    <t>464342:1</t>
-  </si>
-  <si>
     <t>475298:0</t>
   </si>
   <si>
@@ -370,6 +361,12 @@
     <t>527109:0</t>
   </si>
   <si>
+    <t>536919:1</t>
+  </si>
+  <si>
+    <t>558423:5</t>
+  </si>
+  <si>
     <t>744478:1</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
     <t>we, there were four of us, arrived at noon - the place was empty - and the staff acted like we were imposing on them and they were very rude.</t>
   </si>
   <si>
-    <t>ive asked a cart attendant for a lotus leaf wrapped rice and she replied back rice and just walked away.</t>
-  </si>
-  <si>
     <t>service was devine, oysters where a sensual as they come, and the price can't be beat!!!</t>
   </si>
   <si>
@@ -445,9 +439,6 @@
     <t>the service is excellent, the decor is great, and the food is delicious and comes in large portions.</t>
   </si>
   <si>
-    <t>the hostess is rude to the point of being offensive.</t>
-  </si>
-  <si>
     <t>we have been to this place many times, and always have great food, wine, and service.</t>
   </si>
   <si>
@@ -478,9 +469,6 @@
     <t>i'd highly recommend it for a special occasion -- it provides and intimate setting and nice service.</t>
   </si>
   <si>
-    <t>took my mom for mother's day, and the maitre d' was pretty rude.</t>
-  </si>
-  <si>
     <t>the staff is incredibly helpful and attentive.</t>
   </si>
   <si>
@@ -559,6 +547,9 @@
     <t>the place is so cool and the service is prompt and curtious.</t>
   </si>
   <si>
+    <t>a restaurant that doesn't try to do anything except serve great food with great service in a pleasant atmosphere.</t>
+  </si>
+  <si>
     <t>the service was impeccable and unobtrusive -- the staff knows what they are there to do -- to know their menu, present your meal, and attend to your needs.</t>
   </si>
   <si>
@@ -688,9 +679,6 @@
     <t>the service is awful.</t>
   </si>
   <si>
-    <t>i asked for an open faced cheese sandwich and the manager basically told me to take my business elsewhere!</t>
-  </si>
-  <si>
     <t>good, fast service.</t>
   </si>
   <si>
@@ -733,6 +721,12 @@
     <t>volare virgins or weekly regulars, everyone gets treated the same and you can't ask for more than that when the service is this friendly.</t>
   </si>
   <si>
+    <t>the only thing the waiters don't do for you is wipe your chin when you leave.</t>
+  </si>
+  <si>
+    <t>quick and friendly service.</t>
+  </si>
+  <si>
     <t>fabulous decor - makes you feel like you're in a trendy manhattan restaurant, very very good food, cheaply-priced, generally friendly staff, and if you're a manhattanite, or spend most of your time in manhattan, rice avenue will make you feel at home.....very soho/village/upper west side minus the expensive prices and pretentious clientele.....all on roosevelt avenue!</t>
   </si>
   <si>
@@ -760,9 +754,6 @@
     <t>like</t>
   </si>
   <si>
-    <t>ive</t>
-  </si>
-  <si>
     <t>sensual</t>
   </si>
   <si>
@@ -796,9 +787,6 @@
     <t>japanese</t>
   </si>
   <si>
-    <t>rude</t>
-  </si>
-  <si>
     <t>trouble</t>
   </si>
   <si>
@@ -817,9 +805,6 @@
     <t>small</t>
   </si>
   <si>
-    <t>pretty</t>
-  </si>
-  <si>
     <t>incredibly</t>
   </si>
   <si>
@@ -922,9 +907,6 @@
     <t>awful</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>pleasant</t>
   </si>
   <si>
@@ -941,6 +923,9 @@
   </si>
   <si>
     <t>drawbacks</t>
+  </si>
+  <si>
+    <t>only</t>
   </si>
   <si>
     <t>work</t>
@@ -1316,7 +1301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1347,16 +1332,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1367,16 +1352,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1387,16 +1372,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1407,16 +1392,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1427,16 +1412,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1447,16 +1432,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1467,16 +1452,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F8" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1487,16 +1472,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1507,16 +1492,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1527,16 +1512,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E11" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F11" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1547,16 +1532,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E12" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1567,16 +1552,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E13" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F13" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1587,16 +1572,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1607,16 +1592,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F15" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1627,16 +1612,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F16" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1647,16 +1632,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E17" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F17" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1667,16 +1652,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E18" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F18" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1687,16 +1672,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E19" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F19" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1707,16 +1692,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E20" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F20" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1727,16 +1712,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E21" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F21" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1747,16 +1732,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E22" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F22" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1767,16 +1752,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E23" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F23" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1787,16 +1772,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E24" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F24" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1807,16 +1792,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E25" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F25" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1827,16 +1812,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E26" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F26" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1847,16 +1832,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E27" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F27" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1867,16 +1852,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E28" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F28" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1887,16 +1872,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E29" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F29" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1907,16 +1892,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E30" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F30" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1927,16 +1912,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D31" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="E31" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F31" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1947,16 +1932,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E32" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F32" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1967,16 +1952,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E33" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F33" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1987,16 +1972,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="E34" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F34" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2007,16 +1992,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E35" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F35" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2027,16 +2012,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E36" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F36" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2047,16 +2032,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E37" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F37" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2067,16 +2052,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E38" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F38" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2087,16 +2072,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D39" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E39" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F39" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2107,16 +2092,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E40" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F40" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2127,16 +2112,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E41" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F41" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2147,16 +2132,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D42" t="s">
         <v>273</v>
       </c>
       <c r="E42" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F42" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2167,16 +2152,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E43" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F43" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2187,16 +2172,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D44" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="E44" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F44" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2207,16 +2192,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E45" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F45" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2227,16 +2212,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D46" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E46" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F46" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2247,16 +2232,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D47" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="E47" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F47" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2267,16 +2252,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D48" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="E48" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F48" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2287,16 +2272,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D49" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2307,16 +2292,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="E50" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F50" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2327,16 +2312,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D51" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E51" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F51" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2347,16 +2332,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D52" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="E52" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F52" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2367,16 +2352,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D53" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="E53" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F53" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2387,16 +2372,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D54" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E54" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F54" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2407,16 +2392,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="E55" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F55" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2427,16 +2412,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D56" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="E56" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F56" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2447,16 +2432,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D57" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E57" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F57" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2467,16 +2452,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D58" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E58" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F58" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2487,16 +2472,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E59" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F59" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2507,16 +2492,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="E60" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F60" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2527,16 +2512,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E61" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F61" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2547,16 +2532,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="E62" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F62" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2567,16 +2552,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E63" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F63" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2587,16 +2572,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="E64" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F64" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2607,16 +2592,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="E65" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F65" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2627,16 +2612,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="E66" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F66" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2647,16 +2632,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="E67" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F67" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2667,16 +2652,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E68" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F68" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2687,16 +2672,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D69" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E69" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F69" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2707,16 +2692,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D70" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E70" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F70" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2727,16 +2712,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D71" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="E71" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F71" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2747,16 +2732,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D72" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E72" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F72" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2767,16 +2752,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D73" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="E73" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F73" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2787,16 +2772,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D74" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="E74" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F74" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2807,16 +2792,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D75" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="E75" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F75" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2827,16 +2812,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D76" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="E76" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F76" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2847,16 +2832,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D77" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="E77" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F77" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2867,16 +2852,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D78" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="E78" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F78" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2887,16 +2872,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D79" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="E79" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F79" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2907,16 +2892,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D80" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="E80" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F80" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2927,16 +2912,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D81" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="E81" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F81" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2947,16 +2932,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D82" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="E82" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F82" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2967,16 +2952,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D83" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="E83" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F83" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2987,16 +2972,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D84" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="E84" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F84" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3007,16 +2992,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D85" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E85" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F85" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3027,16 +3012,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D86" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="E86" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F86" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3047,16 +3032,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D87" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E87" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F87" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3067,16 +3052,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D88" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="E88" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F88" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3087,16 +3072,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D89" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E89" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F89" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3107,16 +3092,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D90" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E90" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F90" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3127,16 +3112,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D91" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="E91" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F91" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3147,16 +3132,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D92" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="E92" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F92" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3167,16 +3152,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D93" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="E93" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F93" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3187,16 +3172,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D94" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="E94" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F94" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3207,16 +3192,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D95" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="E95" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F95" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3227,16 +3212,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D96" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E96" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F96" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3247,16 +3232,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D97" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="E97" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F97" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3267,16 +3252,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D98" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="E98" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F98" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3287,16 +3272,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D99" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="E99" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F99" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3307,16 +3292,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D100" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E100" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F100" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3327,16 +3312,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D101" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E101" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F101" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3347,16 +3332,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D102" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E102" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F102" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3367,16 +3352,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D103" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E103" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F103" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3387,16 +3372,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D104" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E104" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F104" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3407,16 +3392,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D105" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="E105" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F105" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3427,16 +3412,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D106" t="s">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="E106" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F106" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3447,16 +3432,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D107" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="E107" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F107" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3467,16 +3452,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D108" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="E108" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F108" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3487,16 +3472,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D109" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="E109" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F109" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3507,16 +3492,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D110" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="E110" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F110" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3527,16 +3512,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D111" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="E111" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F111" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3547,16 +3532,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D112" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E112" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F112" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3567,16 +3552,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D113" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="E113" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F113" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3587,16 +3572,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D114" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E114" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F114" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3607,16 +3592,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D115" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="E115" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F115" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3627,16 +3612,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D116" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E116" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F116" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3647,16 +3632,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D117" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E117" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F117" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3667,16 +3652,16 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D118" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E118" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F118" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3687,16 +3672,16 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D119" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="E119" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F119" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3707,16 +3692,16 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D120" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="E120" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F120" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3727,36 +3712,16 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D121" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="E121" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F121" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>125</v>
-      </c>
-      <c r="C122" t="s">
-        <v>246</v>
-      </c>
-      <c r="D122" t="s">
-        <v>306</v>
-      </c>
-      <c r="E122" t="s">
-        <v>313</v>
-      </c>
-      <c r="F122" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sentiwordnet/hasil_SERVICE.xlsx
+++ b/Results/Sentiwordnet/hasil_SERVICE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="311">
   <si>
     <t>id</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>predict</t>
+  </si>
+  <si>
+    <t>score</t>
   </si>
   <si>
     <t>1004293:1</t>
@@ -1301,13 +1304,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1323,2405 +1326,2768 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F6" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G8">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F10" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F12" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G13">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F14" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F16" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F18" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F20" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F21" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F23" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F24" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G24">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F25" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G25">
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F26" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F27" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G27">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F28" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F29" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G29">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F30" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F31" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E32" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F32" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G32">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E33" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F33" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F34" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G34">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D35" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E35" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F35" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E36" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D37" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E37" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F37" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G37">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E38" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E39" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G39">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E40" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F40" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G40">
+        <v>-0.875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D41" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E41" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F41" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E42" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F42" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G42">
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E43" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F43" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G43">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E44" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F44" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G44">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D45" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E45" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F45" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E46" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F46" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G46">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E47" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F47" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D48" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E48" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F48" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E49" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F49" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D50" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E50" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F50" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D51" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F51" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G51">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E52" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F52" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G52">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D53" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E53" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F53" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D54" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E54" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F54" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D55" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F55" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E56" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F56" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D57" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F57" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D58" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F58" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E59" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F59" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F60" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E61" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F61" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E62" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F62" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G62">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E63" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F63" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G63">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E64" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F64" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G64">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E65" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F65" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E66" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F66" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E67" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F67" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G67">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D68" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E68" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F68" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D69" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E69" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F69" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D70" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E70" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F70" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E71" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F71" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G71">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D72" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E72" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F72" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G72">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D73" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E73" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F73" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D74" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E74" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F74" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G74">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D75" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E75" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F75" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D76" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E76" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F76" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G76">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D77" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E77" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F77" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G77">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D78" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E78" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F78" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D79" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E79" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F79" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G79">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D80" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E80" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F80" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G80">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D81" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E81" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F81" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D82" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E82" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F82" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G82">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D83" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E83" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F83" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G83">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D84" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E84" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F84" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G84">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D85" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E85" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F85" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G85">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E86" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F86" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D87" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E87" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F87" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D88" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E88" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F88" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G88">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D89" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E89" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F89" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D90" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E90" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F90" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G90">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D91" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E91" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D92" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E92" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F92" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D93" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E93" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F93" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G93">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D94" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E94" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F94" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G94">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D95" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E95" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F95" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G95">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D96" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E96" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F96" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D97" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E97" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F97" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G97">
+        <v>-0.875</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D98" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E98" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F98" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D99" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E99" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F99" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G99">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D100" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E100" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F100" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G100">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D101" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E101" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F101" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G101">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D102" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E102" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F102" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D103" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E103" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F103" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G103">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D104" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E104" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F104" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G104">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E105" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F105" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E106" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F106" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D107" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E107" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F107" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D108" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E108" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F108" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D109" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E109" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F109" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D110" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E110" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F110" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G110">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E111" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F111" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G111">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D112" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E112" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F112" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E113" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F113" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G113">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C114" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E114" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F114" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G114">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D115" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E115" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F115" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D116" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E116" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F116" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G116">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C117" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D117" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E117" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F117" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G117">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D118" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E118" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F118" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G118">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D119" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E119" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F119" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G119">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D120" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E120" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F120" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>310</v>
+      </c>
+      <c r="G120">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C121" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D121" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E121" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F121" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="G121">
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>
